--- a/practice_trials.xlsx
+++ b/practice_trials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gseagles-my.sharepoint.com/personal/vwickline_georgiasouthern_edu/Documents/crat/1_crat_rough_draft/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gseagles-my.sharepoint.com/personal/vwickline_georgiasouthern_edu/Documents/crat/GITHUB/CRATpsyc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{C5D88FC5-D690-4C55-8697-F0DE5DE0F81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31161733-2C4A-42E0-9864-6EF6117012C7}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{C5D88FC5-D690-4C55-8697-F0DE5DE0F81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0906D879-0902-44DE-9BC7-D4EB1ED84B79}"/>
   <bookViews>
-    <workbookView xWindow="10095" yWindow="6510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="13740" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
   <si>
     <t>word1</t>
   </si>
@@ -34,40 +34,7 @@
     <t>solution</t>
   </si>
   <si>
-    <t>cottage</t>
-  </si>
-  <si>
-    <t>swiss</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>skate</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>rocking</t>
-  </si>
-  <si>
-    <t>wheel</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>horse</t>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -433,7 +400,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,41 +424,41 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
